--- a/周数据/《实施上线数据统计表》-翁晨.xlsx
+++ b/周数据/《实施上线数据统计表》-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -335,11 +335,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -476,6 +476,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -489,69 +579,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,53 +597,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +700,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,37 +808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,91 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,17 +1336,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,6 +1362,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1377,6 +1382,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,37 +1428,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,10 +1441,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1453,133 +1453,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2269,15 +2269,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.12962962962963" style="42" customWidth="1"/>
-    <col min="2" max="2" width="8.12962962962963" style="42" customWidth="1"/>
+    <col min="1" max="1" width="5.13333333333333" style="42" customWidth="1"/>
+    <col min="2" max="2" width="8.13333333333333" style="42" customWidth="1"/>
     <col min="3" max="4" width="16.25" style="43" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="17.8796296296296" style="44" customWidth="1"/>
-    <col min="7" max="8" width="17.8796296296296" style="45" customWidth="1"/>
-    <col min="9" max="9" width="18.6296296296296" style="45" customWidth="1"/>
+    <col min="6" max="6" width="17.8833333333333" style="44" customWidth="1"/>
+    <col min="7" max="8" width="17.8833333333333" style="45" customWidth="1"/>
+    <col min="9" max="9" width="18.6333333333333" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1" spans="1:9">
@@ -2306,7 +2306,7 @@
       <c r="H2" s="53"/>
       <c r="I2" s="101"/>
     </row>
-    <row r="3" ht="15.6" spans="1:9">
+    <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15.15" spans="1:9">
+    <row r="4" ht="14.25" spans="1:9">
       <c r="A4" s="61"/>
       <c r="B4" s="62"/>
       <c r="C4" s="63"/>
@@ -2489,7 +2489,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" ht="15.15" spans="1:9">
+    <row r="10" ht="14.25" spans="1:9">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="86"/>
@@ -2512,7 +2512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:9">
+    <row r="11" ht="14.25" spans="1:9">
       <c r="A11" s="69" t="s">
         <v>17</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" ht="15.15" spans="1:9">
+    <row r="12" ht="14.25" spans="1:9">
       <c r="A12" s="69"/>
       <c r="B12" s="70" t="s">
         <v>19</v>
@@ -2568,7 +2568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:9">
+    <row r="13" ht="14.25" spans="1:9">
       <c r="A13" s="69"/>
       <c r="B13" s="70" t="s">
         <v>20</v>
@@ -2649,7 +2649,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" ht="15.15" spans="1:9">
+    <row r="16" ht="14.25" spans="1:9">
       <c r="A16" s="84"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
@@ -2672,7 +2672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="1:9">
+    <row r="17" ht="14.25" spans="1:9">
       <c r="A17" s="69" t="s">
         <v>22</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="1:9">
+    <row r="18" ht="14.25" spans="1:9">
       <c r="A18" s="69"/>
       <c r="B18" s="70" t="s">
         <v>24</v>
@@ -2734,7 +2734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:9">
+    <row r="19" ht="14.25" spans="1:9">
       <c r="A19" s="69"/>
       <c r="B19" s="70" t="s">
         <v>25</v>
@@ -2763,7 +2763,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="1:9">
+    <row r="20" ht="14.25" spans="1:9">
       <c r="A20" s="69"/>
       <c r="B20" s="70" t="s">
         <v>26</v>
@@ -2792,7 +2792,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" ht="15.15" spans="1:9">
+    <row r="21" ht="14.25" spans="1:9">
       <c r="A21" s="69"/>
       <c r="B21" s="70" t="s">
         <v>27</v>
@@ -2821,7 +2821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" ht="15.15" spans="1:9">
+    <row r="22" ht="14.25" spans="1:9">
       <c r="A22" s="84"/>
       <c r="B22" s="70" t="s">
         <v>28</v>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15.15" spans="1:9">
+    <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="69" t="s">
         <v>29</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.15" spans="1:9">
+    <row r="24" ht="14.25" spans="1:9">
       <c r="A24" s="69"/>
       <c r="B24" s="70" t="s">
         <v>31</v>
@@ -2914,7 +2914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:9">
+    <row r="25" ht="14.25" spans="1:9">
       <c r="A25" s="69"/>
       <c r="B25" s="70" t="s">
         <v>32</v>
@@ -2987,7 +2987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" ht="15.15" spans="1:9">
+    <row r="28" ht="14.25" spans="1:9">
       <c r="A28" s="84"/>
       <c r="B28" s="95"/>
       <c r="C28" s="86"/>
@@ -3125,7 +3125,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" ht="15.15" spans="1:9">
+    <row r="34" ht="14.25" spans="1:9">
       <c r="A34" s="84"/>
       <c r="B34" s="95"/>
       <c r="C34" s="86"/>
@@ -3263,7 +3263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" ht="15.15" spans="1:9">
+    <row r="40" ht="14.25" spans="1:9">
       <c r="A40" s="84"/>
       <c r="B40" s="95"/>
       <c r="C40" s="86"/>
@@ -3401,7 +3401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" ht="15.15" spans="1:9">
+    <row r="46" ht="14.25" spans="1:9">
       <c r="A46" s="84"/>
       <c r="B46" s="95"/>
       <c r="C46" s="86"/>
@@ -3539,7 +3539,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" ht="15.15" spans="1:9">
+    <row r="52" ht="14.25" spans="1:9">
       <c r="A52" s="84"/>
       <c r="B52" s="95"/>
       <c r="C52" s="86"/>
@@ -3677,7 +3677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" ht="15.15" spans="1:9">
+    <row r="58" ht="14.25" spans="1:9">
       <c r="A58" s="84"/>
       <c r="B58" s="95"/>
       <c r="C58" s="86"/>
@@ -3815,7 +3815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" ht="15.15" spans="1:9">
+    <row r="64" ht="14.25" spans="1:9">
       <c r="A64" s="84"/>
       <c r="B64" s="95"/>
       <c r="C64" s="86"/>
@@ -3953,7 +3953,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" ht="15.15" spans="1:9">
+    <row r="70" ht="14.25" spans="1:9">
       <c r="A70" s="84"/>
       <c r="B70" s="95"/>
       <c r="C70" s="86"/>
@@ -4091,7 +4091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" ht="15.15" spans="1:9">
+    <row r="76" ht="14.25" spans="1:9">
       <c r="A76" s="84"/>
       <c r="B76" s="95"/>
       <c r="C76" s="86"/>
@@ -4229,7 +4229,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" ht="15.15" spans="1:9">
+    <row r="82" ht="14.25" spans="1:9">
       <c r="A82" s="84"/>
       <c r="B82" s="95"/>
       <c r="C82" s="86"/>
@@ -4367,7 +4367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" ht="15.15" spans="1:9">
+    <row r="88" ht="14.25" spans="1:9">
       <c r="A88" s="84"/>
       <c r="B88" s="95"/>
       <c r="C88" s="86"/>
@@ -4505,7 +4505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="94" ht="15.15" spans="1:9">
+    <row r="94" ht="14.25" spans="1:9">
       <c r="A94" s="84"/>
       <c r="B94" s="95"/>
       <c r="C94" s="86"/>
@@ -4643,7 +4643,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="100" ht="15.15" spans="1:9">
+    <row r="100" ht="14.25" spans="1:9">
       <c r="A100" s="84"/>
       <c r="B100" s="95"/>
       <c r="C100" s="86"/>
@@ -4781,7 +4781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" ht="15.15" spans="1:9">
+    <row r="106" ht="14.25" spans="1:9">
       <c r="A106" s="84"/>
       <c r="B106" s="95"/>
       <c r="C106" s="86"/>
@@ -4919,7 +4919,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" ht="15.15" spans="1:9">
+    <row r="112" ht="14.25" spans="1:9">
       <c r="A112" s="84"/>
       <c r="B112" s="95"/>
       <c r="C112" s="86"/>
@@ -5057,7 +5057,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="118" ht="15.15" spans="1:9">
+    <row r="118" ht="14.25" spans="1:9">
       <c r="A118" s="84"/>
       <c r="B118" s="95"/>
       <c r="C118" s="86"/>
@@ -5195,7 +5195,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="124" ht="15.15" spans="1:9">
+    <row r="124" ht="14.25" spans="1:9">
       <c r="A124" s="84"/>
       <c r="B124" s="95"/>
       <c r="C124" s="86"/>
@@ -5333,7 +5333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" ht="15.15" spans="1:9">
+    <row r="130" ht="14.25" spans="1:9">
       <c r="A130" s="84"/>
       <c r="B130" s="95"/>
       <c r="C130" s="86"/>
@@ -5471,7 +5471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="136" ht="15.15" spans="1:9">
+    <row r="136" ht="14.25" spans="1:9">
       <c r="A136" s="84"/>
       <c r="B136" s="95"/>
       <c r="C136" s="86"/>
@@ -5609,7 +5609,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="142" ht="15.15" spans="1:9">
+    <row r="142" ht="14.25" spans="1:9">
       <c r="A142" s="84"/>
       <c r="B142" s="95"/>
       <c r="C142" s="86"/>
@@ -5747,7 +5747,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" ht="15.15" spans="1:9">
+    <row r="148" ht="14.25" spans="1:9">
       <c r="A148" s="84"/>
       <c r="B148" s="95"/>
       <c r="C148" s="86"/>
@@ -5885,7 +5885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" ht="15.15" spans="1:9">
+    <row r="154" ht="14.25" spans="1:9">
       <c r="A154" s="84"/>
       <c r="B154" s="95"/>
       <c r="C154" s="86"/>
@@ -6023,7 +6023,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" ht="15.15" spans="1:9">
+    <row r="160" ht="14.25" spans="1:9">
       <c r="A160" s="84"/>
       <c r="B160" s="95"/>
       <c r="C160" s="86"/>
@@ -6161,7 +6161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" ht="15.15" spans="1:9">
+    <row r="166" ht="14.25" spans="1:9">
       <c r="A166" s="84"/>
       <c r="B166" s="95"/>
       <c r="C166" s="86"/>
@@ -6299,7 +6299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="172" ht="15.15" spans="1:9">
+    <row r="172" ht="14.25" spans="1:9">
       <c r="A172" s="84"/>
       <c r="B172" s="95"/>
       <c r="C172" s="86"/>
@@ -6437,7 +6437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="178" ht="15.15" spans="1:9">
+    <row r="178" ht="14.25" spans="1:9">
       <c r="A178" s="84"/>
       <c r="B178" s="95"/>
       <c r="C178" s="86"/>
@@ -6575,7 +6575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" ht="15.15" spans="1:9">
+    <row r="184" ht="14.25" spans="1:9">
       <c r="A184" s="84"/>
       <c r="B184" s="95"/>
       <c r="C184" s="86"/>
@@ -6713,7 +6713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="190" ht="15.15" spans="1:9">
+    <row r="190" ht="14.25" spans="1:9">
       <c r="A190" s="84"/>
       <c r="B190" s="95"/>
       <c r="C190" s="86"/>
@@ -6851,7 +6851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="196" ht="15.15" spans="1:9">
+    <row r="196" ht="14.25" spans="1:9">
       <c r="A196" s="84"/>
       <c r="B196" s="95"/>
       <c r="C196" s="86"/>
@@ -6989,7 +6989,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="202" ht="15.15" spans="1:9">
+    <row r="202" ht="14.25" spans="1:9">
       <c r="A202" s="84"/>
       <c r="B202" s="95"/>
       <c r="C202" s="86"/>
@@ -7127,7 +7127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="208" ht="15.15" spans="1:9">
+    <row r="208" ht="14.25" spans="1:9">
       <c r="A208" s="84"/>
       <c r="B208" s="95"/>
       <c r="C208" s="86"/>
@@ -7265,7 +7265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="214" ht="15.15" spans="1:9">
+    <row r="214" ht="14.25" spans="1:9">
       <c r="A214" s="84"/>
       <c r="B214" s="95"/>
       <c r="C214" s="86"/>
@@ -7403,7 +7403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="220" ht="15.15" spans="1:9">
+    <row r="220" ht="14.25" spans="1:9">
       <c r="A220" s="84"/>
       <c r="B220" s="95"/>
       <c r="C220" s="86"/>
@@ -7541,7 +7541,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="226" ht="15.15" spans="1:9">
+    <row r="226" ht="14.25" spans="1:9">
       <c r="A226" s="84"/>
       <c r="B226" s="95"/>
       <c r="C226" s="86"/>
@@ -7679,7 +7679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="232" ht="15.15" spans="1:9">
+    <row r="232" ht="14.25" spans="1:9">
       <c r="A232" s="84"/>
       <c r="B232" s="95"/>
       <c r="C232" s="86"/>
@@ -7817,7 +7817,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="238" ht="15.15" spans="1:9">
+    <row r="238" ht="14.25" spans="1:9">
       <c r="A238" s="84"/>
       <c r="B238" s="95"/>
       <c r="C238" s="86"/>
@@ -7955,7 +7955,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="244" ht="15.15" spans="1:9">
+    <row r="244" ht="14.25" spans="1:9">
       <c r="A244" s="84"/>
       <c r="B244" s="95"/>
       <c r="C244" s="86"/>
@@ -8093,7 +8093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="250" ht="15.15" spans="1:9">
+    <row r="250" ht="14.25" spans="1:9">
       <c r="A250" s="84"/>
       <c r="B250" s="95"/>
       <c r="C250" s="86"/>
@@ -8231,7 +8231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="256" ht="15.15" spans="1:9">
+    <row r="256" ht="14.25" spans="1:9">
       <c r="A256" s="84"/>
       <c r="B256" s="95"/>
       <c r="C256" s="86"/>
@@ -8369,7 +8369,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="262" ht="15.15" spans="1:9">
+    <row r="262" ht="14.25" spans="1:9">
       <c r="A262" s="84"/>
       <c r="B262" s="95"/>
       <c r="C262" s="86"/>
@@ -8507,7 +8507,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" ht="15.15" spans="1:9">
+    <row r="268" ht="14.25" spans="1:9">
       <c r="A268" s="84"/>
       <c r="B268" s="95"/>
       <c r="C268" s="86"/>
@@ -8645,7 +8645,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" ht="15.15" spans="1:9">
+    <row r="274" ht="14.25" spans="1:9">
       <c r="A274" s="84"/>
       <c r="B274" s="95"/>
       <c r="C274" s="86"/>
@@ -8783,7 +8783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" ht="15.15" spans="1:9">
+    <row r="280" ht="14.25" spans="1:9">
       <c r="A280" s="84"/>
       <c r="B280" s="95"/>
       <c r="C280" s="86"/>
@@ -8921,7 +8921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" ht="15.15" spans="1:9">
+    <row r="286" ht="14.25" spans="1:9">
       <c r="A286" s="84"/>
       <c r="B286" s="95"/>
       <c r="C286" s="86"/>
@@ -9059,7 +9059,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" ht="15.15" spans="1:9">
+    <row r="292" ht="14.25" spans="1:9">
       <c r="A292" s="84"/>
       <c r="B292" s="95"/>
       <c r="C292" s="86"/>
@@ -9197,7 +9197,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" ht="15.15" spans="1:9">
+    <row r="298" ht="14.25" spans="1:9">
       <c r="A298" s="84"/>
       <c r="B298" s="95"/>
       <c r="C298" s="86"/>
@@ -9335,7 +9335,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" ht="15.15" spans="1:9">
+    <row r="304" ht="14.25" spans="1:9">
       <c r="A304" s="84"/>
       <c r="B304" s="95"/>
       <c r="C304" s="86"/>
@@ -9473,7 +9473,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" ht="15.15" spans="1:9">
+    <row r="310" ht="14.25" spans="1:9">
       <c r="A310" s="84"/>
       <c r="B310" s="95"/>
       <c r="C310" s="86"/>
@@ -9611,7 +9611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" ht="15.15" spans="1:9">
+    <row r="316" ht="14.25" spans="1:9">
       <c r="A316" s="84"/>
       <c r="B316" s="95"/>
       <c r="C316" s="86"/>
@@ -9749,7 +9749,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" ht="15.15" spans="1:9">
+    <row r="322" ht="14.25" spans="1:9">
       <c r="A322" s="84"/>
       <c r="B322" s="95"/>
       <c r="C322" s="86"/>
@@ -9887,7 +9887,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" ht="15.15" spans="1:9">
+    <row r="328" ht="14.25" spans="1:9">
       <c r="A328" s="84"/>
       <c r="B328" s="95"/>
       <c r="C328" s="86"/>
@@ -10025,7 +10025,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" ht="15.15" spans="1:9">
+    <row r="334" ht="14.25" spans="1:9">
       <c r="A334" s="84"/>
       <c r="B334" s="95"/>
       <c r="C334" s="86"/>
@@ -10163,7 +10163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="340" ht="15.15" spans="1:9">
+    <row r="340" ht="14.25" spans="1:9">
       <c r="A340" s="84"/>
       <c r="B340" s="95"/>
       <c r="C340" s="86"/>
@@ -10301,7 +10301,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" ht="15.15" spans="1:9">
+    <row r="346" ht="14.25" spans="1:9">
       <c r="A346" s="84"/>
       <c r="B346" s="95"/>
       <c r="C346" s="86"/>
@@ -10439,7 +10439,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" ht="15.15" spans="1:9">
+    <row r="352" ht="14.25" spans="1:9">
       <c r="A352" s="84"/>
       <c r="B352" s="95"/>
       <c r="C352" s="86"/>
@@ -10577,7 +10577,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="358" ht="15.15" spans="1:9">
+    <row r="358" ht="14.25" spans="1:9">
       <c r="A358" s="84"/>
       <c r="B358" s="95"/>
       <c r="C358" s="86"/>
@@ -10715,7 +10715,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="364" ht="15.15" spans="1:9">
+    <row r="364" ht="14.25" spans="1:9">
       <c r="A364" s="84"/>
       <c r="B364" s="95"/>
       <c r="C364" s="86"/>
@@ -10853,7 +10853,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="370" ht="15.15" spans="1:9">
+    <row r="370" ht="14.25" spans="1:9">
       <c r="A370" s="84"/>
       <c r="B370" s="95"/>
       <c r="C370" s="86"/>
@@ -10991,7 +10991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="376" ht="15.15" spans="1:9">
+    <row r="376" ht="14.25" spans="1:9">
       <c r="A376" s="84"/>
       <c r="B376" s="95"/>
       <c r="C376" s="86"/>
@@ -11129,7 +11129,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="382" ht="15.15" spans="1:9">
+    <row r="382" ht="14.25" spans="1:9">
       <c r="A382" s="84"/>
       <c r="B382" s="95"/>
       <c r="C382" s="86"/>
@@ -11267,7 +11267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="388" ht="15.15" spans="1:9">
+    <row r="388" ht="14.25" spans="1:9">
       <c r="A388" s="84"/>
       <c r="B388" s="95"/>
       <c r="C388" s="86"/>
@@ -11405,7 +11405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="394" ht="15.15" spans="1:9">
+    <row r="394" ht="14.25" spans="1:9">
       <c r="A394" s="84"/>
       <c r="B394" s="95"/>
       <c r="C394" s="86"/>
@@ -11543,7 +11543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="400" ht="15.15" spans="1:9">
+    <row r="400" ht="14.25" spans="1:9">
       <c r="A400" s="84"/>
       <c r="B400" s="95"/>
       <c r="C400" s="86"/>
@@ -11681,7 +11681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="406" ht="15.15" spans="1:9">
+    <row r="406" ht="14.25" spans="1:9">
       <c r="A406" s="84"/>
       <c r="B406" s="95"/>
       <c r="C406" s="86"/>
@@ -11819,7 +11819,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="412" ht="15.15" spans="1:9">
+    <row r="412" ht="14.25" spans="1:9">
       <c r="A412" s="84"/>
       <c r="B412" s="95"/>
       <c r="C412" s="86"/>
@@ -11957,7 +11957,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="418" ht="15.15" spans="1:9">
+    <row r="418" ht="14.25" spans="1:9">
       <c r="A418" s="84"/>
       <c r="B418" s="95"/>
       <c r="C418" s="86"/>
@@ -12095,7 +12095,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="424" ht="15.15" spans="1:9">
+    <row r="424" ht="14.25" spans="1:9">
       <c r="A424" s="84"/>
       <c r="B424" s="95"/>
       <c r="C424" s="86"/>
@@ -12233,7 +12233,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="430" ht="15.15" spans="1:9">
+    <row r="430" ht="14.25" spans="1:9">
       <c r="A430" s="84"/>
       <c r="B430" s="95"/>
       <c r="C430" s="86"/>
@@ -12371,7 +12371,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="436" ht="15.15" spans="1:9">
+    <row r="436" ht="14.25" spans="1:9">
       <c r="A436" s="84"/>
       <c r="B436" s="95"/>
       <c r="C436" s="86"/>
@@ -12509,7 +12509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="442" ht="15.15" spans="1:9">
+    <row r="442" ht="14.25" spans="1:9">
       <c r="A442" s="84"/>
       <c r="B442" s="95"/>
       <c r="C442" s="86"/>
@@ -12647,7 +12647,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="448" ht="15.15" spans="1:9">
+    <row r="448" ht="14.25" spans="1:9">
       <c r="A448" s="84"/>
       <c r="B448" s="95"/>
       <c r="C448" s="86"/>
@@ -12785,7 +12785,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="454" ht="15.15" spans="1:9">
+    <row r="454" ht="14.25" spans="1:9">
       <c r="A454" s="84"/>
       <c r="B454" s="95"/>
       <c r="C454" s="86"/>
@@ -12923,7 +12923,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="460" ht="15.15" spans="1:9">
+    <row r="460" ht="14.25" spans="1:9">
       <c r="A460" s="84"/>
       <c r="B460" s="95"/>
       <c r="C460" s="86"/>
@@ -13061,7 +13061,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="466" ht="15.15" spans="1:9">
+    <row r="466" ht="14.25" spans="1:9">
       <c r="A466" s="84"/>
       <c r="B466" s="95"/>
       <c r="C466" s="86"/>
@@ -13199,7 +13199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="472" ht="15.15" spans="1:9">
+    <row r="472" ht="14.25" spans="1:9">
       <c r="A472" s="84"/>
       <c r="B472" s="95"/>
       <c r="C472" s="86"/>
@@ -13337,7 +13337,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="478" ht="15.15" spans="1:9">
+    <row r="478" ht="14.25" spans="1:9">
       <c r="A478" s="84"/>
       <c r="B478" s="95"/>
       <c r="C478" s="86"/>
@@ -13475,7 +13475,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="484" ht="15.15" spans="1:9">
+    <row r="484" ht="14.25" spans="1:9">
       <c r="A484" s="84"/>
       <c r="B484" s="95"/>
       <c r="C484" s="86"/>
@@ -13613,7 +13613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="490" ht="15.15" spans="1:9">
+    <row r="490" ht="14.25" spans="1:9">
       <c r="A490" s="84"/>
       <c r="B490" s="95"/>
       <c r="C490" s="86"/>
@@ -13751,7 +13751,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="496" ht="15.15" spans="1:9">
+    <row r="496" ht="14.25" spans="1:9">
       <c r="A496" s="84"/>
       <c r="B496" s="95"/>
       <c r="C496" s="86"/>
@@ -13889,7 +13889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="502" ht="15.15" spans="1:9">
+    <row r="502" ht="14.25" spans="1:9">
       <c r="A502" s="84"/>
       <c r="B502" s="95"/>
       <c r="C502" s="86"/>
@@ -14027,7 +14027,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="508" ht="15.15" spans="1:9">
+    <row r="508" ht="14.25" spans="1:9">
       <c r="A508" s="84"/>
       <c r="B508" s="95"/>
       <c r="C508" s="86"/>
@@ -14165,7 +14165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="514" ht="15.15" spans="1:9">
+    <row r="514" ht="14.25" spans="1:9">
       <c r="A514" s="84"/>
       <c r="B514" s="95"/>
       <c r="C514" s="86"/>
@@ -14303,7 +14303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="520" ht="15.15" spans="1:9">
+    <row r="520" ht="14.25" spans="1:9">
       <c r="A520" s="84"/>
       <c r="B520" s="95"/>
       <c r="C520" s="86"/>
@@ -14441,7 +14441,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="526" ht="15.15" spans="1:9">
+    <row r="526" ht="14.25" spans="1:9">
       <c r="A526" s="84"/>
       <c r="B526" s="95"/>
       <c r="C526" s="86"/>
@@ -14579,7 +14579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="532" ht="15.15" spans="1:9">
+    <row r="532" ht="14.25" spans="1:9">
       <c r="A532" s="84"/>
       <c r="B532" s="95"/>
       <c r="C532" s="86"/>
@@ -14717,7 +14717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="538" ht="15.15" spans="1:9">
+    <row r="538" ht="14.25" spans="1:9">
       <c r="A538" s="84"/>
       <c r="B538" s="95"/>
       <c r="C538" s="86"/>
@@ -14855,7 +14855,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="544" ht="15.15" spans="1:9">
+    <row r="544" ht="14.25" spans="1:9">
       <c r="A544" s="84"/>
       <c r="B544" s="95"/>
       <c r="C544" s="86"/>
@@ -14993,7 +14993,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="550" ht="15.15" spans="1:9">
+    <row r="550" ht="14.25" spans="1:9">
       <c r="A550" s="84"/>
       <c r="B550" s="95"/>
       <c r="C550" s="86"/>
@@ -15131,7 +15131,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="556" ht="15.15" spans="1:9">
+    <row r="556" ht="14.25" spans="1:9">
       <c r="A556" s="84"/>
       <c r="B556" s="95"/>
       <c r="C556" s="86"/>
@@ -15269,7 +15269,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="562" ht="15.15" spans="1:9">
+    <row r="562" ht="14.25" spans="1:9">
       <c r="A562" s="84"/>
       <c r="B562" s="95"/>
       <c r="C562" s="86"/>
@@ -15407,7 +15407,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="568" ht="15.15" spans="1:9">
+    <row r="568" ht="14.25" spans="1:9">
       <c r="A568" s="84"/>
       <c r="B568" s="95"/>
       <c r="C568" s="86"/>
@@ -15545,7 +15545,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="574" ht="15.15" spans="1:9">
+    <row r="574" ht="14.25" spans="1:9">
       <c r="A574" s="84"/>
       <c r="B574" s="95"/>
       <c r="C574" s="86"/>
@@ -15683,7 +15683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="580" ht="15.15" spans="1:9">
+    <row r="580" ht="14.25" spans="1:9">
       <c r="A580" s="84"/>
       <c r="B580" s="95"/>
       <c r="C580" s="86"/>
@@ -15821,7 +15821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="586" ht="15.15" spans="1:9">
+    <row r="586" ht="14.25" spans="1:9">
       <c r="A586" s="84"/>
       <c r="B586" s="95"/>
       <c r="C586" s="86"/>
@@ -15959,7 +15959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="592" ht="15.15" spans="1:9">
+    <row r="592" ht="14.25" spans="1:9">
       <c r="A592" s="84"/>
       <c r="B592" s="95"/>
       <c r="C592" s="86"/>
@@ -16097,7 +16097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="598" ht="15.15" spans="1:9">
+    <row r="598" ht="14.25" spans="1:9">
       <c r="A598" s="84"/>
       <c r="B598" s="95"/>
       <c r="C598" s="86"/>
@@ -16244,27 +16244,27 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.8425925925926" customWidth="1"/>
-    <col min="2" max="2" width="11.4814814814815" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.4814814814815" customWidth="1"/>
-    <col min="4" max="5" width="9.73148148148148" style="32"/>
+    <col min="1" max="1" width="12.8416666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.4833333333333" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.4833333333333" customWidth="1"/>
+    <col min="4" max="5" width="9.73333333333333" style="32"/>
     <col min="6" max="6" width="15" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.2685185185185" style="12" customWidth="1"/>
-    <col min="8" max="8" width="17.1574074074074" style="32" customWidth="1"/>
-    <col min="9" max="9" width="9.87037037037037" customWidth="1"/>
+    <col min="7" max="7" width="10.2666666666667" style="12" customWidth="1"/>
+    <col min="8" max="8" width="17.1583333333333" style="32" customWidth="1"/>
+    <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
     <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
-    <col min="11" max="11" width="17.9722222222222" customWidth="1"/>
+    <col min="11" max="11" width="17.975" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.73148148148148"/>
+    <col min="15" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="27.6" spans="1:15">
+    <row r="1" s="31" customFormat="1" ht="28.5" spans="1:15">
       <c r="A1" s="33" t="s">
         <v>34</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="38">
-        <v>43257</v>
+        <v>43264</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>49</v>
@@ -21567,19 +21567,19 @@
   <sheetPr/>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.63333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.62962962962963" style="12"/>
-    <col min="2" max="2" width="15.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="8.63333333333333" style="12"/>
+    <col min="2" max="2" width="15.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="35.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="13.5092592592593" customWidth="1"/>
+    <col min="5" max="5" width="13.5083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.3796296296296" customWidth="1"/>
+    <col min="7" max="7" width="11.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -21778,7 +21778,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="16"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -21787,7 +21787,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="21"/>
       <c r="B14" s="25"/>
       <c r="C14" s="28"/>
@@ -21796,7 +21796,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="14.25" spans="1:7">
       <c r="A15" s="21"/>
       <c r="B15" s="17"/>
       <c r="C15" s="28"/>
@@ -21895,7 +21895,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" ht="15.6" spans="1:7">
+    <row r="26" ht="14.25" spans="1:7">
       <c r="A26" s="16"/>
       <c r="B26" s="25"/>
       <c r="C26" s="28"/>
@@ -21904,7 +21904,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" ht="15.6" spans="1:7">
+    <row r="27" ht="14.25" spans="1:7">
       <c r="A27" s="21"/>
       <c r="B27" s="17"/>
       <c r="C27" s="28"/>
@@ -22030,7 +22030,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" ht="15.6" spans="1:7">
+    <row r="41" ht="14.25" spans="1:7">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="28"/>
@@ -22039,7 +22039,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" ht="15.6" spans="1:7">
+    <row r="42" ht="14.25" spans="1:7">
       <c r="A42" s="21"/>
       <c r="B42" s="17"/>
       <c r="C42" s="29"/>
@@ -22165,7 +22165,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" ht="15.6" spans="1:7">
+    <row r="56" ht="14.25" spans="1:7">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="28"/>
@@ -22174,7 +22174,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" ht="15.6" spans="1:7">
+    <row r="57" ht="14.25" spans="1:7">
       <c r="A57" s="21"/>
       <c r="B57" s="17"/>
       <c r="C57" s="29"/>
@@ -22183,7 +22183,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" ht="15.6" spans="1:7">
+    <row r="58" ht="14.25" spans="1:7">
       <c r="A58" s="21"/>
       <c r="B58" s="17"/>
       <c r="C58" s="29"/>
@@ -22192,7 +22192,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" ht="15.6" spans="1:7">
+    <row r="59" ht="14.25" spans="1:7">
       <c r="A59" s="21"/>
       <c r="B59" s="17"/>
       <c r="C59" s="29"/>
@@ -22273,7 +22273,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" ht="15.6" spans="1:7">
+    <row r="68" ht="14.25" spans="1:7">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="28"/>
@@ -22282,7 +22282,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" ht="15.6" spans="1:7">
+    <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="21"/>
       <c r="B69" s="17"/>
       <c r="C69" s="29"/>
@@ -22291,7 +22291,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" ht="15.6" spans="1:7">
+    <row r="70" ht="14.25" spans="1:7">
       <c r="A70" s="21"/>
       <c r="B70" s="17"/>
       <c r="C70" s="29"/>
@@ -22300,7 +22300,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" ht="15.6" spans="1:7">
+    <row r="71" ht="14.25" spans="1:7">
       <c r="A71" s="21"/>
       <c r="B71" s="17"/>
       <c r="C71" s="29"/>
@@ -22381,7 +22381,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" ht="15.6" spans="1:7">
+    <row r="80" ht="14.25" spans="1:7">
       <c r="A80" s="21"/>
       <c r="B80" s="17"/>
       <c r="C80" s="29"/>
@@ -22390,7 +22390,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" ht="15.6" spans="1:7">
+    <row r="81" ht="14.25" spans="1:7">
       <c r="A81" s="21"/>
       <c r="B81" s="17"/>
       <c r="C81" s="29"/>
@@ -22502,19 +22502,19 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.1296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.9907407407407" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.9916666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>

--- a/周数据/《实施上线数据统计表》-翁晨.xlsx
+++ b/周数据/《实施上线数据统计表》-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9947" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>范老板</t>
+  </si>
+  <si>
+    <t>苏州楼兰餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>楼兰餐饮</t>
+  </si>
+  <si>
+    <t>楼兰餐厅（南京鼓楼虹桥店）</t>
+  </si>
+  <si>
+    <t>杜金</t>
+  </si>
+  <si>
+    <t>店长</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -615,8 +630,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,9 +645,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,6 +739,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -736,24 +769,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -761,12 +776,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,13 +799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,13 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,7 +1486,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1480,7 +1495,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1492,10 +1507,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1525,16 +1540,16 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1546,19 +1561,19 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1567,19 +1582,19 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1594,7 +1609,7 @@
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2935,7 +2950,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:9">
+    <row r="25" spans="1:9">
       <c r="A25" s="70"/>
       <c r="B25" s="71" t="s">
         <v>32</v>
@@ -2944,18 +2959,18 @@
         <v>4</v>
       </c>
       <c r="D25" s="80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" s="81">
         <v>0</v>
       </c>
       <c r="F25" s="82">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="83">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H25" s="84">
         <f t="shared" si="6"/>
@@ -2963,7 +2978,7 @@
       </c>
       <c r="I25" s="106">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -16271,8 +16286,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
@@ -16280,10 +16295,11 @@
     <col min="1" max="1" width="12.8425925925926" customWidth="1"/>
     <col min="2" max="2" width="11.4814814814815" style="13" customWidth="1"/>
     <col min="3" max="3" width="11.4814814814815" customWidth="1"/>
-    <col min="4" max="5" width="9.73148148148148" style="33"/>
+    <col min="4" max="4" width="24.1111111111111" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.4444444444444" style="33" customWidth="1"/>
     <col min="6" max="6" width="15" style="13" customWidth="1"/>
     <col min="7" max="7" width="10.2685185185185" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.1574074074074" style="33" customWidth="1"/>
+    <col min="8" max="8" width="25.2222222222222" style="33" customWidth="1"/>
     <col min="9" max="9" width="9.87037037037037" customWidth="1"/>
     <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.9722222222222" customWidth="1"/>
@@ -16762,21 +16778,51 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="1">
+        <v>25</v>
+      </c>
+      <c r="B11" s="39">
+        <v>43271</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="41">
+        <v>76173535</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15195247771</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="1">
+        <v>15957959728</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
@@ -16792,7 +16838,6 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
@@ -21714,7 +21759,7 @@
   <sheetPr/>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -21737,19 +21782,19 @@
         <v>41</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -21757,85 +21802,85 @@
         <v>13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="19">
         <v>43202</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="22"/>
       <c r="B3" s="18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="19">
         <v>43217</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="22"/>
       <c r="B4" s="13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C4" s="23">
         <v>43248</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="22"/>
       <c r="B5" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C5" s="19">
         <v>43270</v>
       </c>
       <c r="D5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -22633,21 +22678,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>52</v>
@@ -22656,15 +22701,15 @@
         <v>43204</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>52</v>
@@ -22673,15 +22718,15 @@
         <v>43205</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>52</v>
@@ -22690,15 +22735,15 @@
         <v>43253</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>52</v>
@@ -22707,15 +22752,15 @@
         <v>43260</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>52</v>
@@ -22724,15 +22769,15 @@
         <v>43261</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>52</v>
@@ -22741,15 +22786,15 @@
         <v>43267</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>52</v>
@@ -22758,10 +22803,10 @@
         <v>43268</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:4">

--- a/周数据/《实施上线数据统计表》-翁晨.xlsx
+++ b/周数据/《实施上线数据统计表》-翁晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" activeTab="3"/>
+    <workbookView windowWidth="22511" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>第26周</t>
+  </si>
+  <si>
+    <t>07月</t>
+  </si>
+  <si>
+    <t>第27周</t>
   </si>
   <si>
     <t>周次</t>
@@ -333,16 +339,10 @@
     <t>已安装，但商户暂时未使用</t>
   </si>
   <si>
-    <t>杨国福麻辣烫</t>
+    <t>八九石</t>
   </si>
   <si>
-    <t>暂未实施，预计6月全部上线完成</t>
-  </si>
-  <si>
-    <t>连锁</t>
-  </si>
-  <si>
-    <t>上海</t>
+    <t>李学磊</t>
   </si>
   <si>
     <t>姓名</t>
@@ -398,11 +398,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -526,17 +526,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,30 +585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -586,15 +594,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,15 +609,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,9 +631,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +641,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,14 +664,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,31 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +768,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,43 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,43 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,11 +1386,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,17 +1440,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,23 +1452,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1456,15 +1465,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1491,10 +1491,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,19 +1503,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1524,109 +1524,109 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2315,8 +2315,8 @@
   <sheetPr/>
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
@@ -3073,26 +3073,36 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="69"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="99"/>
+      <c r="A29" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="97">
+        <v>1</v>
+      </c>
+      <c r="D29" s="98">
+        <v>0</v>
+      </c>
+      <c r="E29" s="99">
+        <v>0</v>
+      </c>
       <c r="F29" s="74">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G29" s="75">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="76" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="104" t="e">
+      <c r="I29" s="104">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -16307,7 +16317,7 @@
   <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
@@ -16329,49 +16339,49 @@
   <sheetData>
     <row r="1" s="32" customFormat="1" ht="27.6" spans="1:15">
       <c r="A1" s="34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -16382,43 +16392,43 @@
         <v>43199</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="37">
         <v>76152875</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1">
         <v>15195247771</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N2" s="1">
         <v>18901595777</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -16429,43 +16439,43 @@
         <v>43217</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="37">
         <v>76157761</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1">
         <v>15195247771</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N3" s="1">
         <v>18018030678</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -16476,43 +16486,43 @@
         <v>43221</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="37">
         <v>76165760</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1">
         <v>15195247771</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N4" s="1">
         <v>15950705999</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -16523,43 +16533,43 @@
         <v>43241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G5" s="37">
         <v>76162713</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1">
         <v>15195247771</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1">
         <v>18913930002</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -16570,43 +16580,43 @@
         <v>43257</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="37">
         <v>76172767</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1">
         <v>15195247771</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1">
         <v>18751966843</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -16617,43 +16627,43 @@
         <v>43270</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="37">
         <v>76177320</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1">
         <v>15195247771</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N7" s="1">
         <v>15951911085</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -16664,43 +16674,43 @@
         <v>43270</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="37">
         <v>76175913</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1">
         <v>15195247771</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N8" s="1">
         <v>13584025412</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -16711,43 +16721,43 @@
         <v>43270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" s="37">
         <v>76180089</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1">
         <v>15195247771</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N9" s="1">
         <v>18018030678</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -16758,43 +16768,43 @@
         <v>43270</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" s="37">
         <v>76182099</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1">
         <v>15195247771</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N10" s="1">
         <v>15195823779</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -16805,43 +16815,43 @@
         <v>43271</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="37">
         <v>76173535</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1">
         <v>15195247771</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N11" s="1">
         <v>15957959728</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -16852,43 +16862,43 @@
         <v>43278</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="37">
         <v>76183906</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1">
         <v>15195247771</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>15370286893</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -16899,43 +16909,43 @@
         <v>43280</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="37">
         <v>76183556</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1">
         <v>15195247771</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N13">
         <v>15301594316</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -21841,7 +21851,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -21860,22 +21870,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -21883,82 +21893,82 @@
         <v>13</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="19">
         <v>43202</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="22"/>
       <c r="B3" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="19">
         <v>43217</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="22"/>
       <c r="B4" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="23">
         <v>43248</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="22"/>
       <c r="B5" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="19">
-        <v>43270</v>
+        <v>43284</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>106</v>
@@ -22714,7 +22724,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -22749,7 +22759,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9">
         <v>43204</v>
@@ -22766,7 +22776,7 @@
         <v>111</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="9">
         <v>43205</v>
@@ -22783,7 +22793,7 @@
         <v>115</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="9">
         <v>43253</v>
@@ -22800,7 +22810,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="9">
         <v>43260</v>
@@ -22817,7 +22827,7 @@
         <v>115</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="9">
         <v>43261</v>
@@ -22834,7 +22844,7 @@
         <v>115</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="12">
         <v>43267</v>
@@ -22851,7 +22861,7 @@
         <v>115</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="12">
         <v>43268</v>
@@ -22868,7 +22878,7 @@
         <v>115</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12">
         <v>43275</v>
